--- a/data/tower_count/tower_count_2020.xlsx
+++ b/data/tower_count/tower_count_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43FB3C5-6421-4390-8ED7-5389B07FEC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CA76E-54F2-4515-848D-32C69CADEC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2859B217-D451-4C41-B309-B0BCD1CFC6A4}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F30AE9-C51B-4D15-8ACD-A76DA395D501}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/tower_count/tower_count_2020.xlsx
+++ b/data/tower_count/tower_count_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CA76E-54F2-4515-848D-32C69CADEC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FF776-80F1-43F0-A4AE-0027A8634EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2859B217-D451-4C41-B309-B0BCD1CFC6A4}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F30AE9-C51B-4D15-8ACD-A76DA395D501}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,132 +566,168 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43993</v>
+        <v>43995</v>
+      </c>
+      <c r="B5">
+        <v>328</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>187</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43994</v>
+        <v>43996</v>
+      </c>
+      <c r="B6">
+        <v>326</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B7">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B8">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B9">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B10">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E10">
         <v>41</v>
       </c>
       <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B11">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B12">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -700,423 +736,282 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44001</v>
+        <v>44008</v>
       </c>
       <c r="B13">
-        <v>478</v>
+        <v>578</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="E13">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44002</v>
+        <v>44009</v>
       </c>
       <c r="B14">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44003</v>
+        <v>44015</v>
+      </c>
+      <c r="B15">
+        <v>525</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44004</v>
+        <v>44019</v>
+      </c>
+      <c r="B16">
+        <v>451</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>136</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44005</v>
+        <v>44025</v>
+      </c>
+      <c r="B17">
+        <v>403</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44006</v>
+        <v>44026</v>
+      </c>
+      <c r="B18">
+        <v>446</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>137</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44007</v>
+        <v>44027</v>
+      </c>
+      <c r="B19">
+        <v>513</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>108</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44008</v>
+        <v>44028</v>
       </c>
       <c r="B20">
-        <v>578</v>
+        <v>436</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E20">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44009</v>
+        <v>44029</v>
       </c>
       <c r="B21">
-        <v>572</v>
+        <v>474</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44010</v>
+        <v>44031</v>
+      </c>
+      <c r="B22">
+        <v>519</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>154</v>
+      </c>
+      <c r="E22">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44011</v>
+        <v>44032</v>
+      </c>
+      <c r="B23">
+        <v>383</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44015</v>
-      </c>
-      <c r="B27">
-        <v>525</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>103</v>
-      </c>
-      <c r="E27">
-        <v>28</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44019</v>
-      </c>
-      <c r="B31">
-        <v>451</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>136</v>
-      </c>
-      <c r="E31">
-        <v>34</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>44025</v>
-      </c>
-      <c r="B37">
-        <v>403</v>
-      </c>
-      <c r="C37">
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <v>124</v>
-      </c>
-      <c r="E37">
-        <v>44</v>
-      </c>
-      <c r="F37">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>44026</v>
-      </c>
-      <c r="B38">
-        <v>446</v>
-      </c>
-      <c r="C38">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>137</v>
-      </c>
-      <c r="E38">
-        <v>19</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>44027</v>
-      </c>
-      <c r="B39">
-        <v>513</v>
-      </c>
-      <c r="C39">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>108</v>
-      </c>
-      <c r="E39">
-        <v>27</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>44028</v>
-      </c>
-      <c r="B40">
-        <v>436</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>132</v>
-      </c>
-      <c r="E40">
-        <v>34</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>44029</v>
-      </c>
-      <c r="B41">
-        <v>474</v>
-      </c>
-      <c r="C41">
-        <v>38</v>
-      </c>
-      <c r="D41">
-        <v>184</v>
-      </c>
-      <c r="E41">
-        <v>49</v>
-      </c>
-      <c r="F41">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>44031</v>
-      </c>
-      <c r="B43">
-        <v>519</v>
-      </c>
-      <c r="C43">
-        <v>29</v>
-      </c>
-      <c r="D43">
-        <v>154</v>
-      </c>
-      <c r="E43">
+        <v>44033</v>
+      </c>
+      <c r="B24">
+        <v>426</v>
+      </c>
+      <c r="C24">
         <v>46</v>
       </c>
-      <c r="F43">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44032</v>
-      </c>
-      <c r="B44">
-        <v>383</v>
-      </c>
-      <c r="C44">
-        <v>32</v>
-      </c>
-      <c r="D44">
-        <v>50</v>
-      </c>
-      <c r="E44">
-        <v>47</v>
-      </c>
-      <c r="F44">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44033</v>
-      </c>
-      <c r="B45">
-        <v>426</v>
-      </c>
-      <c r="C45">
-        <v>46</v>
-      </c>
-      <c r="D45">
+      <c r="D24">
         <v>143</v>
       </c>
-      <c r="E45">
+      <c r="E24">
         <v>71</v>
       </c>
-      <c r="F45">
+      <c r="F24">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G24" t="s">
         <v>27</v>
       </c>
     </row>
